--- a/SOLUCION/Tablas Impositivas 2023.xlsx
+++ b/SOLUCION/Tablas Impositivas 2023.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037399F-9F05-4F4E-974E-E222377F84C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D906989A-C522-497E-A99E-6B8DBDD6EE45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Deducciones poGastos Personales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Para el año 2023 la tabla de Impuesto a la Renta es la siguiente:</t>
   </si>
@@ -98,13 +99,67 @@
   </si>
   <si>
     <t>$ 23.594,00</t>
+  </si>
+  <si>
+    <t>Cargas Familiares</t>
+  </si>
+  <si>
+    <t>N° de canastas familiares básicas (n)</t>
+  </si>
+  <si>
+    <t>Límite máximo GP (CFB x n)</t>
+  </si>
+  <si>
+    <t>Límite máximo rebaja GP -18%</t>
+  </si>
+  <si>
+    <t>$ 5.352,97</t>
+  </si>
+  <si>
+    <t>$ 963,53</t>
+  </si>
+  <si>
+    <t>$ 6.882,39</t>
+  </si>
+  <si>
+    <t>$ 1.238,83</t>
+  </si>
+  <si>
+    <t>$ 8.411,81</t>
+  </si>
+  <si>
+    <t>$ 1.514,13</t>
+  </si>
+  <si>
+    <t>$ 10.705,94</t>
+  </si>
+  <si>
+    <t>$ 1.927,07</t>
+  </si>
+  <si>
+    <t>$ 13.000,07</t>
+  </si>
+  <si>
+    <t>$ 2.340,01</t>
+  </si>
+  <si>
+    <t>5 o más</t>
+  </si>
+  <si>
+    <t>$ 15.294,20</t>
+  </si>
+  <si>
+    <t>$ 2.752,96</t>
+  </si>
+  <si>
+    <t>Personas con o a cargo de personas con enfermedades catastróficas raras y/o huérfanas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +182,24 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFFFFE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF272833"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF272833"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -204,18 +277,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -227,61 +294,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFFFFE0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF272833"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -440,13 +475,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFE7E7ED"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color rgb="FFE7E7ED"/>
         </top>
@@ -454,6 +482,63 @@
           <color rgb="FFE7E7ED"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF272833"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFE7E7ED"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFFFFE0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,13 +554,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A2338F8-E409-47E8-AE38-0C955237154A}" name="Tabla2" displayName="Tabla2" ref="B4:E14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A2338F8-E409-47E8-AE38-0C955237154A}" name="Tabla2" displayName="Tabla2" ref="B4:E14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="B4:E14" xr:uid="{0DE07189-7C4C-42C8-ADD8-E2A6D68A5AB2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3B813A8F-C13C-470F-B7AD-E1F1D46A2477}" name="Fracción Básica" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{132D0848-6289-46C5-967C-319256A0705A}" name="Exceso hasta" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{1A22EC76-29CD-40D8-8C4E-F229779517DD}" name="Impuesto Fracción Básica" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0BF1A629-1FB3-4A97-83B0-D8F3E6284561}" name="% Impuesto Fracción Excedente" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3B813A8F-C13C-470F-B7AD-E1F1D46A2477}" name="Fracción Básica" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{132D0848-6289-46C5-967C-319256A0705A}" name="Exceso hasta" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1A22EC76-29CD-40D8-8C4E-F229779517DD}" name="Impuesto Fracción Básica" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0BF1A629-1FB3-4A97-83B0-D8F3E6284561}" name="% Impuesto Fracción Excedente" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -746,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -759,32 +844,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:5" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -872,7 +957,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -886,7 +971,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -915,16 +1000,16 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>0.37</v>
       </c>
     </row>
@@ -939,4 +1024,133 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CF7F3F-275B-4C90-9029-B49BB1B1159C}">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>